--- a/data/extreme_weather.xlsx
+++ b/data/extreme_weather.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\github_projects\power_by_district\District-power\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00D1041-C6E3-4E15-ABA0-FA8759FAEAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F43016-F0BE-4A82-A9B6-C5590ADA1415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,6 +79,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +120,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -401,12 +404,12 @@
   <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.9140625" customWidth="1"/>
   </cols>
   <sheetData>
